--- a/rank_select.xlsx
+++ b/rank_select.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="scen_lossdf" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="normality" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
   <si>
     <t>scenario</t>
   </si>
@@ -168,13 +169,112 @@
   </si>
   <si>
     <t>[ORIGINAL DATA COPY AND PASTE TO REPLACE]</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>RANK MATRIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var </t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>Wi</t>
+  </si>
+  <si>
+    <t>Wj</t>
+  </si>
+  <si>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>numsample</t>
+  </si>
+  <si>
+    <t>Wij</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>Ni-N0</t>
+  </si>
+  <si>
+    <t>opt1_2nd</t>
+  </si>
+  <si>
+    <t>opt2_2nd</t>
+  </si>
+  <si>
+    <t>opt3_2nd</t>
+  </si>
+  <si>
+    <t>hide print</t>
+  </si>
+  <si>
+    <t>Wi1</t>
+  </si>
+  <si>
+    <t>Wi2</t>
+  </si>
+  <si>
+    <t>N0</t>
+  </si>
+  <si>
+    <t>Mean(N0)</t>
+  </si>
+  <si>
+    <t>Var(N0)</t>
+  </si>
+  <si>
+    <t>Mean(N1-N0)</t>
+  </si>
+  <si>
+    <t>Xi(Ni)</t>
+  </si>
+  <si>
+    <t>Final Selection</t>
+  </si>
+  <si>
+    <t>Optimal 3</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>2 Stage Sampling Procedure</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>Adj t-val</t>
+  </si>
+  <si>
+    <t>Optimal 1</t>
+  </si>
+  <si>
+    <t>Optimal 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,8 +410,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,8 +610,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -665,6 +790,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -710,9 +906,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -724,6 +921,66 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2161,38 +2418,38 @@
     </row>
     <row r="16" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5">
         <v>2.2570000000000001</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <v>0.9</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I19" t="s">
@@ -2440,7 +2697,7 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2556,2126 +2813,3390 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE40"/>
+  <dimension ref="A1:AY83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="15" max="19" width="14.42578125" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="9" customFormat="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:51" s="10" customFormat="1">
+      <c r="A1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="9" customFormat="1">
-      <c r="A2" s="9">
+    <row r="2" spans="1:51" s="10" customFormat="1">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>47.961999999999897</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>49.199999999999903</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="10">
         <v>66.55</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>51.25</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>68.649999999999906</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="10">
         <v>30.099999999999898</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="10">
         <v>47.9</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="10">
         <v>38.65</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="10">
         <v>40.199999999999903</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="10">
         <v>46.599999999999902</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="10">
         <v>46.15</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="10">
         <v>47.349999999999902</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="10">
         <v>57.8</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="10">
         <v>40.049999999999997</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="10">
         <v>49.099999999999902</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="10">
         <v>62.25</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="10">
         <v>38.699999999999903</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="10">
         <v>45.55</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U2" s="10">
         <v>48.849999999999902</v>
       </c>
-      <c r="V2" s="9">
+      <c r="V2" s="10">
         <v>34</v>
       </c>
-      <c r="W2" s="9">
+      <c r="W2" s="10">
         <v>60.449999999999903</v>
       </c>
-      <c r="X2" s="9">
+      <c r="X2" s="10">
         <v>63.699999999999903</v>
       </c>
-      <c r="Y2" s="9">
+      <c r="Y2" s="10">
         <v>73.899999999999906</v>
       </c>
-      <c r="Z2" s="9">
+      <c r="Z2" s="10">
         <v>37.299999999999997</v>
       </c>
-      <c r="AA2" s="9">
+      <c r="AA2" s="10">
         <v>19.75</v>
       </c>
-      <c r="AB2" s="9">
+      <c r="AB2" s="10">
         <v>35.049999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="9" customFormat="1">
-      <c r="A3" s="9">
+    <row r="3" spans="1:51" s="10" customFormat="1">
+      <c r="A3" s="10">
         <f>1+A2</f>
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>50.64</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>53.949999999999903</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="10">
         <v>68.349999999999994</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>52.849999999999902</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>71.95</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="10">
         <v>30.4</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="10">
         <v>53.599999999999902</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="10">
         <v>40.349999999999902</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="10">
         <v>39.65</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="10">
         <v>50.15</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="10">
         <v>48.4</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="10">
         <v>52.899999999999899</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="10">
         <v>58.649999999999899</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="10">
         <v>42.15</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="10">
         <v>51.95</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="10">
         <v>67.899999999999906</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="10">
         <v>38.4</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="10">
         <v>50.9</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="10">
         <v>51.349999999999902</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="10">
         <v>37.9</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="10">
         <v>59.65</v>
       </c>
-      <c r="X3" s="9">
+      <c r="X3" s="10">
         <v>66.8</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Y3" s="10">
         <v>75.699999999999903</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="10">
         <v>41.949999999999903</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AA3" s="10">
         <v>24</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AB3" s="10">
         <v>36.15</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="9" customFormat="1">
-      <c r="A4" s="9">
-        <f t="shared" ref="A4:A6" si="0">1+A3</f>
+    <row r="4" spans="1:51" s="10" customFormat="1">
+      <c r="A4" s="10">
+        <f t="shared" ref="A4:A9" si="0">1+A3</f>
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>39.052</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>36.799999999999997</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <v>53.7</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>39.75</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>55.449999999999903</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="10">
         <v>18.95</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="10">
         <v>39.849999999999902</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="10">
         <v>28.549999999999901</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="10">
         <v>29.95</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="10">
         <v>34.25</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="10">
         <v>33.9</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="10">
         <v>46.099999999999902</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="10">
         <v>48.05</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="10">
         <v>31.349999999999898</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="10">
         <v>39.699999999999903</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="10">
         <v>52.6</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="10">
         <v>27.85</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="10">
         <v>37</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="10">
         <v>40.049999999999997</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="10">
         <v>30.799999999999901</v>
       </c>
-      <c r="W4" s="9">
+      <c r="W4" s="10">
         <v>45.55</v>
       </c>
-      <c r="X4" s="9">
+      <c r="X4" s="10">
         <v>53.8</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="Y4" s="10">
         <v>62.65</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="Z4" s="10">
         <v>37</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="AA4" s="10">
         <v>27.45</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AB4" s="10">
         <v>25.2</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="9" customFormat="1">
-      <c r="A5" s="9">
+    <row r="5" spans="1:51" s="10" customFormat="1">
+      <c r="A5" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>38.552</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>41.699999999999903</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="10">
         <v>53.9</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>35.799999999999997</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>56</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="10">
         <v>17.399999999999999</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="10">
         <v>44.849999999999902</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="10">
         <v>30.799999999999901</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="10">
         <v>27.65</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="10">
         <v>32.099999999999902</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="10">
         <v>33.35</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="10">
         <v>44.949999999999903</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="10">
         <v>46.949999999999903</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="10">
         <v>32.549999999999997</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="10">
         <v>40.149999999999899</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="10">
         <v>55.65</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="10">
         <v>28.549999999999901</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="10">
         <v>37.849999999999902</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="10">
         <v>40.049999999999997</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="10">
         <v>25.35</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="10">
         <v>48.05</v>
       </c>
-      <c r="X5" s="9">
+      <c r="X5" s="10">
         <v>53.85</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Y5" s="10">
         <v>60.649999999999899</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="Z5" s="10">
         <v>32.549999999999997</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AA5" s="10">
         <v>20.45</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AB5" s="10">
         <v>22.65</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="9" customFormat="1">
-      <c r="A6" s="9">
+    <row r="6" spans="1:51" s="10" customFormat="1">
+      <c r="A6" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>38.725999999999999</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>41.699999999999903</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="10">
         <v>53.9</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>35.799999999999997</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>56</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="10">
         <v>18.75</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="10">
         <v>44.849999999999902</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="10">
         <v>33.799999999999997</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="10">
         <v>26.9</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="10">
         <v>32.099999999999902</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="10">
         <v>33.35</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="10">
         <v>44.949999999999903</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="10">
         <v>46.949999999999903</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="10">
         <v>32.549999999999997</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="10">
         <v>40.149999999999899</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="10">
         <v>55.65</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="10">
         <v>28.4</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="10">
         <v>37.849999999999902</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="10">
         <v>40.049999999999997</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="10">
         <v>25.35</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W6" s="10">
         <v>48.05</v>
       </c>
-      <c r="X6" s="9">
+      <c r="X6" s="10">
         <v>53.85</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Y6" s="10">
         <v>61.05</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Z6" s="10">
         <v>32.549999999999997</v>
       </c>
-      <c r="AA6" s="9">
+      <c r="AA6" s="10">
         <v>21.7</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AB6" s="10">
         <v>21.9</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
-      <c r="E8" s="7" t="s">
+    <row r="7" spans="1:51" s="10" customFormat="1">
+      <c r="A7" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="10">
+        <v>35.185416666666598</v>
+      </c>
+      <c r="D7" s="11">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E7" s="10">
+        <v>53.7</v>
+      </c>
+      <c r="F7" s="10">
+        <v>39.75</v>
+      </c>
+      <c r="G7" s="10">
+        <v>55.449999999999903</v>
+      </c>
+      <c r="H7" s="10">
+        <v>18.95</v>
+      </c>
+      <c r="I7" s="10">
+        <v>39.849999999999902</v>
+      </c>
+      <c r="J7" s="10">
+        <v>28.549999999999901</v>
+      </c>
+      <c r="K7" s="10">
+        <v>29.95</v>
+      </c>
+      <c r="L7" s="10">
+        <v>34.25</v>
+      </c>
+      <c r="M7" s="10">
+        <v>33.9</v>
+      </c>
+      <c r="N7" s="10">
+        <v>46.099999999999902</v>
+      </c>
+      <c r="O7" s="10">
+        <v>48.05</v>
+      </c>
+      <c r="P7" s="10">
+        <v>31.349999999999898</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>39.699999999999903</v>
+      </c>
+      <c r="R7" s="10">
+        <v>52.6</v>
+      </c>
+      <c r="S7" s="10">
+        <v>27.85</v>
+      </c>
+      <c r="T7" s="10">
+        <v>37</v>
+      </c>
+      <c r="U7" s="10">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="V7" s="10">
+        <v>30.799999999999901</v>
+      </c>
+      <c r="W7" s="10">
+        <v>45.55</v>
+      </c>
+      <c r="X7" s="10">
+        <v>53.8</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>62.65</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>37</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>27.45</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>25.2</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>30.4</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>24.2</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>60.25</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>15.2</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>22.9</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>25.6999999999999</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>44.75</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>43.15</v>
+      </c>
+      <c r="AL7" s="10">
+        <v>26.9</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>13.1</v>
+      </c>
+      <c r="AN7" s="10">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="AO7" s="10">
+        <v>47.349999999999902</v>
+      </c>
+      <c r="AP7" s="10">
+        <v>34.25</v>
+      </c>
+      <c r="AQ7" s="10">
+        <v>27.9</v>
+      </c>
+      <c r="AR7" s="10">
+        <v>22.95</v>
+      </c>
+      <c r="AS7" s="10">
+        <v>41.9</v>
+      </c>
+      <c r="AT7" s="10">
+        <v>45.949999999999903</v>
+      </c>
+      <c r="AU7" s="10">
+        <v>29.15</v>
+      </c>
+      <c r="AV7" s="10">
+        <v>33.75</v>
+      </c>
+      <c r="AW7" s="10">
+        <v>30.049999999999901</v>
+      </c>
+      <c r="AX7" s="10">
+        <v>26.45</v>
+      </c>
+      <c r="AY7" s="10">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" s="10" customFormat="1">
+      <c r="A8" s="10">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="B8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="10">
+        <v>30.3298387096774</v>
+      </c>
+      <c r="D8" s="11">
+        <v>30.85</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44.749999999999901</v>
+      </c>
+      <c r="F8" s="10">
+        <v>34.349999999999902</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44.999999999999901</v>
+      </c>
+      <c r="H8" s="10">
+        <v>15.4</v>
+      </c>
+      <c r="I8" s="10">
+        <v>36.049999999999997</v>
+      </c>
+      <c r="J8" s="10">
+        <v>24.6999999999999</v>
+      </c>
+      <c r="K8" s="10">
+        <v>28.65</v>
+      </c>
+      <c r="L8" s="10">
+        <v>29.799999999999901</v>
+      </c>
+      <c r="M8" s="10">
+        <v>28.15</v>
+      </c>
+      <c r="N8" s="10">
+        <v>45.65</v>
+      </c>
+      <c r="O8" s="10">
+        <v>44.3</v>
+      </c>
+      <c r="P8" s="10">
+        <v>23.5</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>36</v>
+      </c>
+      <c r="R8" s="10">
+        <v>39.449999999999903</v>
+      </c>
+      <c r="S8" s="10">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="T8" s="10">
+        <v>30.65</v>
+      </c>
+      <c r="U8" s="10">
+        <v>35.5</v>
+      </c>
+      <c r="V8" s="10">
+        <v>29.75</v>
+      </c>
+      <c r="W8" s="10">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="X8" s="10">
+        <v>51.9</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>60.15</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>24.2</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>28.349999999999898</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>14.999999999999901</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>22.1</v>
+      </c>
+      <c r="AE8" s="10">
+        <v>20.5</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>51</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>13.75</v>
+      </c>
+      <c r="AH8" s="10">
+        <v>22.75</v>
+      </c>
+      <c r="AI8" s="10">
+        <v>22.75</v>
+      </c>
+      <c r="AJ8" s="10">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="AK8" s="10">
+        <v>41.849999999999902</v>
+      </c>
+      <c r="AL8" s="10">
+        <v>25.7</v>
+      </c>
+      <c r="AM8" s="10">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="AN8" s="10">
+        <v>11.15</v>
+      </c>
+      <c r="AO8" s="10">
+        <v>47.2</v>
+      </c>
+      <c r="AP8" s="10">
+        <v>24.75</v>
+      </c>
+      <c r="AQ8" s="10">
+        <v>26.75</v>
+      </c>
+      <c r="AR8" s="10">
+        <v>20.75</v>
+      </c>
+      <c r="AS8" s="10">
+        <v>29.2</v>
+      </c>
+      <c r="AT8" s="10">
+        <v>39.999999999999901</v>
+      </c>
+      <c r="AU8" s="10">
+        <v>25.9</v>
+      </c>
+      <c r="AV8" s="10">
+        <v>29.6</v>
+      </c>
+      <c r="AW8" s="10">
+        <v>23.299999999999901</v>
+      </c>
+      <c r="AX8" s="10">
+        <v>21.35</v>
+      </c>
+      <c r="AY8" s="10">
+        <v>21.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" s="10" customFormat="1">
+      <c r="A9" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="10">
+        <v>27.6533333333333</v>
+      </c>
+      <c r="D9" s="11">
+        <v>30.9499999999999</v>
+      </c>
+      <c r="E9" s="10">
+        <v>45.3</v>
+      </c>
+      <c r="F9" s="10">
+        <v>31.299999999999901</v>
+      </c>
+      <c r="G9" s="10">
+        <v>46.8</v>
+      </c>
+      <c r="H9" s="10">
+        <v>10.7</v>
+      </c>
+      <c r="I9" s="10">
+        <v>29.4499999999999</v>
+      </c>
+      <c r="J9" s="10">
+        <v>25.6</v>
+      </c>
+      <c r="K9" s="10">
+        <v>21.099999999999898</v>
+      </c>
+      <c r="L9" s="10">
+        <v>24.4</v>
+      </c>
+      <c r="M9" s="10">
+        <v>26.049999999999901</v>
+      </c>
+      <c r="N9" s="10">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="O9" s="10">
+        <v>35.9</v>
+      </c>
+      <c r="P9" s="10">
+        <v>26.15</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>30.799999999999901</v>
+      </c>
+      <c r="R9" s="10">
+        <v>42.199999999999903</v>
+      </c>
+      <c r="S9" s="10">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="T9" s="10">
+        <v>31.4499999999999</v>
+      </c>
+      <c r="U9" s="10">
+        <v>30.65</v>
+      </c>
+      <c r="V9" s="10">
+        <v>24.099999999999898</v>
+      </c>
+      <c r="W9" s="10">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="X9" s="10">
+        <v>46.199999999999903</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>51.949999999999903</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>25.249999999999901</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>19.5</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>20.299999999999901</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>23.85</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>51.599999999999902</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>13.899999999999901</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>19.05</v>
+      </c>
+      <c r="AI9" s="10">
+        <v>18.799999999999901</v>
+      </c>
+      <c r="AJ9" s="10">
+        <v>36.9</v>
+      </c>
+      <c r="AK9" s="10">
+        <v>37.65</v>
+      </c>
+      <c r="AL9" s="10">
+        <v>19.2</v>
+      </c>
+      <c r="AM9" s="10">
+        <v>9.3999999999999897</v>
+      </c>
+      <c r="AN9" s="10">
+        <v>14.85</v>
+      </c>
+      <c r="AO9" s="10">
+        <v>37.599999999999902</v>
+      </c>
+      <c r="AP9" s="10">
+        <v>29.599999999999898</v>
+      </c>
+      <c r="AQ9" s="10">
+        <v>21.15</v>
+      </c>
+      <c r="AR9" s="10">
+        <v>13.899999999999901</v>
+      </c>
+      <c r="AS9" s="10">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="AT9" s="10">
+        <v>38.349999999999902</v>
+      </c>
+      <c r="AU9" s="10">
+        <v>20.599999999999898</v>
+      </c>
+      <c r="AV9" s="10">
+        <v>28.049999999999901</v>
+      </c>
+      <c r="AW9" s="10">
+        <v>22.65</v>
+      </c>
+      <c r="AX9" s="10">
+        <v>15.7</v>
+      </c>
+      <c r="AY9" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" s="10" customFormat="1">
+      <c r="D10" s="11"/>
+    </row>
+    <row r="13" spans="1:51">
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51">
+      <c r="A14">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f>C2</f>
+        <v>47.961999999999897</v>
+      </c>
+      <c r="C14">
+        <f>VARA(D2:AB2)</f>
+        <v>169.26110000000062</v>
+      </c>
+      <c r="D14">
+        <f>C14^0.5</f>
+        <v>13.010038431918662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51">
+      <c r="A15">
+        <f t="shared" ref="A15:A21" si="1">A3</f>
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B21" si="2">C3</f>
+        <v>50.64</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C18" si="3">VARA(D3:AB3)</f>
+        <v>173.04604166666709</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D21" si="4">C15^0.5</f>
+        <v>13.154696563078415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>39.052</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>119.02030833333295</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>10.909642905857778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>38.552</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>143.36572499999966</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>11.973542708822634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="2"/>
+        <v>38.725999999999999</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>140.23835833333396</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>11.842227760575033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>35.185416666666598</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:C21" si="5">VARA(D7:AB7)</f>
+        <v>119.02030833333295</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>10.909642905857778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="2"/>
+        <v>30.3298387096774</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="5"/>
+        <v>107.73145833333335</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>10.379376586931093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="2"/>
+        <v>27.6533333333333</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="5"/>
+        <v>105.919941666667</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>10.291741430227782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="E27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G27" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
-      <c r="B9">
+    <row r="28" spans="1:31">
+      <c r="B28">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C9">
-        <f>LEFT(E9,1)-0</f>
+      <c r="C28">
+        <f>LEFT(E28,1)-0</f>
         <v>1</v>
       </c>
-      <c r="D9">
-        <f>RIGHT(E9,1)-0</f>
+      <c r="D28">
+        <f>RIGHT(E28,1)-0</f>
         <v>2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E28" t="s">
         <v>9</v>
       </c>
-      <c r="F9">
-        <f ca="1">OFFSET(C$1,$C9,0)-OFFSET(C$1,$D9,0)</f>
+      <c r="F28">
+        <f ca="1">OFFSET(C$1,$C28,0)-OFFSET(C$1,$D28,0)</f>
         <v>-2.6780000000001039</v>
       </c>
-      <c r="G9">
-        <f ca="1">OFFSET(D$1,$C9,0)-OFFSET(D$1,$D9,0)</f>
+      <c r="G28">
+        <f ca="1">OFFSET(D$1,$C28,0)-OFFSET(D$1,$D28,0)</f>
         <v>-4.75</v>
       </c>
-      <c r="H9">
-        <f t="shared" ref="H9:AF18" ca="1" si="1">OFFSET(E$1,$C9,0)-OFFSET(E$1,$D9,0)</f>
+      <c r="H28">
+        <f t="shared" ref="H28:AE37" ca="1" si="6">OFFSET(E$1,$C28,0)-OFFSET(E$1,$D28,0)</f>
         <v>-1.7999999999999972</v>
       </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I28">
+        <f t="shared" ca="1" si="6"/>
         <v>-1.5999999999999019</v>
       </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="J28">
+        <f t="shared" ca="1" si="6"/>
         <v>-3.3000000000000966</v>
       </c>
-      <c r="K9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="K28">
+        <f t="shared" ca="1" si="6"/>
         <v>-0.30000000000010019</v>
       </c>
-      <c r="L9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L28">
+        <f t="shared" ca="1" si="6"/>
         <v>-5.6999999999999034</v>
       </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="M28">
+        <f t="shared" ca="1" si="6"/>
         <v>-1.6999999999999034</v>
       </c>
-      <c r="N9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="N28">
+        <f t="shared" ca="1" si="6"/>
         <v>0.54999999999990479</v>
       </c>
-      <c r="O9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="O28">
+        <f t="shared" ca="1" si="6"/>
         <v>-3.5500000000000966</v>
       </c>
-      <c r="P9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="P28">
+        <f t="shared" ca="1" si="6"/>
         <v>-2.25</v>
       </c>
-      <c r="Q9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Q28">
+        <f t="shared" ca="1" si="6"/>
         <v>-5.5499999999999972</v>
       </c>
-      <c r="R9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="R28">
+        <f t="shared" ca="1" si="6"/>
         <v>-0.84999999999990195</v>
       </c>
-      <c r="S9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="S28">
+        <f t="shared" ca="1" si="6"/>
         <v>-2.1000000000000014</v>
       </c>
-      <c r="T9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="T28">
+        <f t="shared" ca="1" si="6"/>
         <v>-2.8500000000001009</v>
       </c>
-      <c r="U9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="U28">
+        <f t="shared" ca="1" si="6"/>
         <v>-5.6499999999999062</v>
       </c>
-      <c r="V9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="V28">
+        <f t="shared" ca="1" si="6"/>
         <v>0.29999999999990479</v>
       </c>
-      <c r="W9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W28">
+        <f t="shared" ca="1" si="6"/>
         <v>-5.3500000000000014</v>
       </c>
-      <c r="X9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="X28">
+        <f t="shared" ca="1" si="6"/>
         <v>-2.5</v>
       </c>
-      <c r="Y9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Y28">
+        <f t="shared" ca="1" si="6"/>
         <v>-3.8999999999999986</v>
       </c>
-      <c r="Z9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z28">
+        <f t="shared" ca="1" si="6"/>
         <v>0.79999999999990479</v>
       </c>
-      <c r="AA9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AA28">
+        <f t="shared" ca="1" si="6"/>
         <v>-3.1000000000000938</v>
       </c>
-      <c r="AB9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AB28">
+        <f t="shared" ca="1" si="6"/>
         <v>-1.7999999999999972</v>
       </c>
-      <c r="AC9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AC28">
+        <f t="shared" ca="1" si="6"/>
         <v>-4.6499999999999062</v>
       </c>
-      <c r="AD9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AD28">
+        <f t="shared" ca="1" si="6"/>
         <v>-4.25</v>
       </c>
-      <c r="AE9">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AE28">
+        <f t="shared" ca="1" si="6"/>
         <v>-1.1000000000000014</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
-      <c r="B10">
-        <f>1+B9</f>
+    <row r="29" spans="1:31">
+      <c r="B29">
+        <f>1+B28</f>
         <v>2</v>
       </c>
-      <c r="C10">
-        <f t="shared" ref="C10:C18" si="2">LEFT(E10,1)-0</f>
+      <c r="C29">
+        <f t="shared" ref="C29:C37" si="7">LEFT(E29,1)-0</f>
         <v>1</v>
       </c>
-      <c r="D10">
-        <f t="shared" ref="D10:D18" si="3">RIGHT(E10,1)-0</f>
+      <c r="D29">
+        <f t="shared" ref="D29:D37" si="8">RIGHT(E29,1)-0</f>
         <v>3</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E29" t="s">
         <v>10</v>
       </c>
-      <c r="F10">
-        <f t="shared" ref="F10:F18" ca="1" si="4">OFFSET(C$1,$C10,0)-OFFSET(C$1,$D10,0)</f>
+      <c r="F29">
+        <f t="shared" ref="F29:F37" ca="1" si="9">OFFSET(C$1,$C29,0)-OFFSET(C$1,$D29,0)</f>
         <v>8.9099999999998971</v>
       </c>
-      <c r="G10">
-        <f t="shared" ref="G10:G18" ca="1" si="5">OFFSET(D$1,$C10,0)-OFFSET(D$1,$D10,0)</f>
+      <c r="G29">
+        <f t="shared" ref="G29:G37" ca="1" si="10">OFFSET(D$1,$C29,0)-OFFSET(D$1,$D29,0)</f>
         <v>12.399999999999906</v>
       </c>
-      <c r="H10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H29">
+        <f t="shared" ca="1" si="6"/>
         <v>12.849999999999994</v>
       </c>
-      <c r="I10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I29">
+        <f t="shared" ca="1" si="6"/>
         <v>11.5</v>
       </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="J29">
+        <f t="shared" ca="1" si="6"/>
         <v>13.200000000000003</v>
       </c>
-      <c r="K10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="K29">
+        <f t="shared" ca="1" si="6"/>
         <v>11.149999999999899</v>
       </c>
-      <c r="L10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L29">
+        <f t="shared" ca="1" si="6"/>
         <v>8.0500000000000966</v>
       </c>
-      <c r="M10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="M29">
+        <f t="shared" ca="1" si="6"/>
         <v>10.100000000000097</v>
       </c>
-      <c r="N10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="N29">
+        <f t="shared" ca="1" si="6"/>
         <v>10.249999999999904</v>
       </c>
-      <c r="O10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="O29">
+        <f t="shared" ca="1" si="6"/>
         <v>12.349999999999902</v>
       </c>
-      <c r="P10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="P29">
+        <f t="shared" ca="1" si="6"/>
         <v>12.25</v>
       </c>
-      <c r="Q10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Q29">
+        <f t="shared" ca="1" si="6"/>
         <v>1.25</v>
       </c>
-      <c r="R10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="R29">
+        <f t="shared" ca="1" si="6"/>
         <v>9.75</v>
       </c>
-      <c r="S10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="S29">
+        <f t="shared" ca="1" si="6"/>
         <v>8.7000000000000988</v>
       </c>
-      <c r="T10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="T29">
+        <f t="shared" ca="1" si="6"/>
         <v>9.3999999999999986</v>
       </c>
-      <c r="U10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="U29">
+        <f t="shared" ca="1" si="6"/>
         <v>9.6499999999999986</v>
       </c>
-      <c r="V10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="V29">
+        <f t="shared" ca="1" si="6"/>
         <v>10.849999999999902</v>
       </c>
-      <c r="W10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W29">
+        <f t="shared" ca="1" si="6"/>
         <v>8.5499999999999972</v>
       </c>
-      <c r="X10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="X29">
+        <f t="shared" ca="1" si="6"/>
         <v>8.7999999999999048</v>
       </c>
-      <c r="Y10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Y29">
+        <f t="shared" ca="1" si="6"/>
         <v>3.2000000000000988</v>
       </c>
-      <c r="Z10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z29">
+        <f t="shared" ca="1" si="6"/>
         <v>14.899999999999906</v>
       </c>
-      <c r="AA10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AA29">
+        <f t="shared" ca="1" si="6"/>
         <v>9.8999999999999062</v>
       </c>
-      <c r="AB10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AB29">
+        <f t="shared" ca="1" si="6"/>
         <v>11.249999999999908</v>
       </c>
-      <c r="AC10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AC29">
+        <f t="shared" ca="1" si="6"/>
         <v>0.29999999999999716</v>
       </c>
-      <c r="AD10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AD29">
+        <f t="shared" ca="1" si="6"/>
         <v>-7.6999999999999993</v>
       </c>
-      <c r="AE10">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AE29">
+        <f t="shared" ca="1" si="6"/>
         <v>9.8499999999999979</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
-      <c r="B11">
-        <f t="shared" ref="B11:B18" si="6">1+B10</f>
+    <row r="30" spans="1:31">
+      <c r="B30">
+        <f t="shared" ref="B30:B37" si="11">1+B29</f>
         <v>3</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="2"/>
+      <c r="C30">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="3"/>
+      <c r="D30">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E30" t="s">
         <v>11</v>
       </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="4"/>
+      <c r="F30">
+        <f t="shared" ca="1" si="9"/>
         <v>9.4099999999998971</v>
       </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G30">
+        <f t="shared" ca="1" si="10"/>
         <v>7.5</v>
       </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H30">
+        <f t="shared" ca="1" si="6"/>
         <v>12.649999999999999</v>
       </c>
-      <c r="I11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I30">
+        <f t="shared" ca="1" si="6"/>
         <v>15.450000000000003</v>
       </c>
-      <c r="J11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="J30">
+        <f t="shared" ca="1" si="6"/>
         <v>12.649999999999906</v>
       </c>
-      <c r="K11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="K30">
+        <f t="shared" ca="1" si="6"/>
         <v>12.6999999999999</v>
       </c>
-      <c r="L11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L30">
+        <f t="shared" ca="1" si="6"/>
         <v>3.0500000000000966</v>
       </c>
-      <c r="M11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="M30">
+        <f t="shared" ca="1" si="6"/>
         <v>7.8500000000000973</v>
       </c>
-      <c r="N11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="N30">
+        <f t="shared" ca="1" si="6"/>
         <v>12.549999999999905</v>
       </c>
-      <c r="O11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="O30">
+        <f t="shared" ca="1" si="6"/>
         <v>14.5</v>
       </c>
-      <c r="P11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="P30">
+        <f t="shared" ca="1" si="6"/>
         <v>12.799999999999997</v>
       </c>
-      <c r="Q11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Q30">
+        <f t="shared" ca="1" si="6"/>
         <v>2.3999999999999986</v>
       </c>
-      <c r="R11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="R30">
+        <f t="shared" ca="1" si="6"/>
         <v>10.850000000000094</v>
       </c>
-      <c r="S11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="S30">
+        <f t="shared" ca="1" si="6"/>
         <v>7.5</v>
       </c>
-      <c r="T11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="T30">
+        <f t="shared" ca="1" si="6"/>
         <v>8.9500000000000028</v>
       </c>
-      <c r="U11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="U30">
+        <f t="shared" ca="1" si="6"/>
         <v>6.6000000000000014</v>
       </c>
-      <c r="V11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="V30">
+        <f t="shared" ca="1" si="6"/>
         <v>10.150000000000002</v>
       </c>
-      <c r="W11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W30">
+        <f t="shared" ca="1" si="6"/>
         <v>7.7000000000000952</v>
       </c>
-      <c r="X11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="X30">
+        <f t="shared" ca="1" si="6"/>
         <v>8.7999999999999048</v>
       </c>
-      <c r="Y11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Y30">
+        <f t="shared" ca="1" si="6"/>
         <v>8.6499999999999986</v>
       </c>
-      <c r="Z11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z30">
+        <f t="shared" ca="1" si="6"/>
         <v>12.399999999999906</v>
       </c>
-      <c r="AA11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AA30">
+        <f t="shared" ca="1" si="6"/>
         <v>9.8499999999999019</v>
       </c>
-      <c r="AB11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AB30">
+        <f t="shared" ca="1" si="6"/>
         <v>13.250000000000007</v>
       </c>
-      <c r="AC11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AC30">
+        <f t="shared" ca="1" si="6"/>
         <v>4.75</v>
       </c>
-      <c r="AD11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AD30">
+        <f t="shared" ca="1" si="6"/>
         <v>-0.69999999999999929</v>
       </c>
-      <c r="AE11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AE30">
+        <f t="shared" ca="1" si="6"/>
         <v>12.399999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
-      <c r="B12">
-        <f t="shared" si="6"/>
+    <row r="31" spans="1:31">
+      <c r="B31">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="2"/>
+      <c r="C31">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="3"/>
+      <c r="D31">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E31" t="s">
         <v>40</v>
       </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="4"/>
+      <c r="F31">
+        <f t="shared" ca="1" si="9"/>
         <v>9.2359999999998976</v>
       </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G31">
+        <f t="shared" ca="1" si="10"/>
         <v>7.5</v>
       </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H31">
+        <f t="shared" ca="1" si="6"/>
         <v>12.649999999999999</v>
       </c>
-      <c r="I12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I31">
+        <f t="shared" ca="1" si="6"/>
         <v>15.450000000000003</v>
       </c>
-      <c r="J12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="J31">
+        <f t="shared" ca="1" si="6"/>
         <v>12.649999999999906</v>
       </c>
-      <c r="K12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="K31">
+        <f t="shared" ca="1" si="6"/>
         <v>11.349999999999898</v>
       </c>
-      <c r="L12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L31">
+        <f t="shared" ca="1" si="6"/>
         <v>3.0500000000000966</v>
       </c>
-      <c r="M12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="M31">
+        <f t="shared" ca="1" si="6"/>
         <v>4.8500000000000014</v>
       </c>
-      <c r="N12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="N31">
+        <f t="shared" ca="1" si="6"/>
         <v>13.299999999999905</v>
       </c>
-      <c r="O12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="O31">
+        <f t="shared" ca="1" si="6"/>
         <v>14.5</v>
       </c>
-      <c r="P12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="P31">
+        <f t="shared" ca="1" si="6"/>
         <v>12.799999999999997</v>
       </c>
-      <c r="Q12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Q31">
+        <f t="shared" ca="1" si="6"/>
         <v>2.3999999999999986</v>
       </c>
-      <c r="R12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="R31">
+        <f t="shared" ca="1" si="6"/>
         <v>10.850000000000094</v>
       </c>
-      <c r="S12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="S31">
+        <f t="shared" ca="1" si="6"/>
         <v>7.5</v>
       </c>
-      <c r="T12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="T31">
+        <f t="shared" ca="1" si="6"/>
         <v>8.9500000000000028</v>
       </c>
-      <c r="U12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="U31">
+        <f t="shared" ca="1" si="6"/>
         <v>6.6000000000000014</v>
       </c>
-      <c r="V12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="V31">
+        <f t="shared" ca="1" si="6"/>
         <v>10.299999999999905</v>
       </c>
-      <c r="W12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W31">
+        <f t="shared" ca="1" si="6"/>
         <v>7.7000000000000952</v>
       </c>
-      <c r="X12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="X31">
+        <f t="shared" ca="1" si="6"/>
         <v>8.7999999999999048</v>
       </c>
-      <c r="Y12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Y31">
+        <f t="shared" ca="1" si="6"/>
         <v>8.6499999999999986</v>
       </c>
-      <c r="Z12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z31">
+        <f t="shared" ca="1" si="6"/>
         <v>12.399999999999906</v>
       </c>
-      <c r="AA12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AA31">
+        <f t="shared" ca="1" si="6"/>
         <v>9.8499999999999019</v>
       </c>
-      <c r="AB12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AB31">
+        <f t="shared" ca="1" si="6"/>
         <v>12.849999999999909</v>
       </c>
-      <c r="AC12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AC31">
+        <f t="shared" ca="1" si="6"/>
         <v>4.75</v>
       </c>
-      <c r="AD12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AD31">
+        <f t="shared" ca="1" si="6"/>
         <v>-1.9499999999999993</v>
       </c>
-      <c r="AE12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AE31">
+        <f t="shared" ca="1" si="6"/>
         <v>13.149999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
-      <c r="B13">
-        <f t="shared" si="6"/>
+    <row r="32" spans="1:31">
+      <c r="B32">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="2"/>
+      <c r="C32">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="3"/>
+      <c r="D32">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E32" t="s">
         <v>12</v>
       </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="4"/>
+      <c r="F32">
+        <f t="shared" ca="1" si="9"/>
         <v>11.588000000000001</v>
       </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G32">
+        <f t="shared" ca="1" si="10"/>
         <v>17.149999999999906</v>
       </c>
-      <c r="H13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H32">
+        <f t="shared" ca="1" si="6"/>
         <v>14.649999999999991</v>
       </c>
-      <c r="I13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I32">
+        <f t="shared" ca="1" si="6"/>
         <v>13.099999999999902</v>
       </c>
-      <c r="J13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="J32">
+        <f t="shared" ca="1" si="6"/>
         <v>16.500000000000099</v>
       </c>
-      <c r="K13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="K32">
+        <f t="shared" ca="1" si="6"/>
         <v>11.45</v>
       </c>
-      <c r="L13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L32">
+        <f t="shared" ca="1" si="6"/>
         <v>13.75</v>
       </c>
-      <c r="M13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="M32">
+        <f t="shared" ca="1" si="6"/>
         <v>11.8</v>
       </c>
-      <c r="N13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="N32">
+        <f t="shared" ca="1" si="6"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="O13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="O32">
+        <f t="shared" ca="1" si="6"/>
         <v>15.899999999999999</v>
       </c>
-      <c r="P13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="P32">
+        <f t="shared" ca="1" si="6"/>
         <v>14.5</v>
       </c>
-      <c r="Q13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Q32">
+        <f t="shared" ca="1" si="6"/>
         <v>6.7999999999999972</v>
       </c>
-      <c r="R13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="R32">
+        <f t="shared" ca="1" si="6"/>
         <v>10.599999999999902</v>
       </c>
-      <c r="S13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="S32">
+        <f t="shared" ca="1" si="6"/>
         <v>10.8000000000001</v>
       </c>
-      <c r="T13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="T32">
+        <f t="shared" ca="1" si="6"/>
         <v>12.250000000000099</v>
       </c>
-      <c r="U13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="U32">
+        <f t="shared" ca="1" si="6"/>
         <v>15.299999999999905</v>
       </c>
-      <c r="V13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="V32">
+        <f t="shared" ca="1" si="6"/>
         <v>10.549999999999997</v>
       </c>
-      <c r="W13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W32">
+        <f t="shared" ca="1" si="6"/>
         <v>13.899999999999999</v>
       </c>
-      <c r="X13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="X32">
+        <f t="shared" ca="1" si="6"/>
         <v>11.299999999999905</v>
       </c>
-      <c r="Y13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Y32">
+        <f t="shared" ca="1" si="6"/>
         <v>7.1000000000000973</v>
       </c>
-      <c r="Z13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z32">
+        <f t="shared" ca="1" si="6"/>
         <v>14.100000000000001</v>
       </c>
-      <c r="AA13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AA32">
+        <f t="shared" ca="1" si="6"/>
         <v>13</v>
       </c>
-      <c r="AB13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AB32">
+        <f t="shared" ca="1" si="6"/>
         <v>13.049999999999905</v>
       </c>
-      <c r="AC13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AC32">
+        <f t="shared" ca="1" si="6"/>
         <v>4.9499999999999034</v>
       </c>
-      <c r="AD13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AD32">
+        <f t="shared" ca="1" si="6"/>
         <v>-3.4499999999999993</v>
       </c>
-      <c r="AE13">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AE32">
+        <f t="shared" ca="1" si="6"/>
         <v>10.95</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
-      <c r="B14">
-        <f t="shared" si="6"/>
+    <row r="33" spans="1:31">
+      <c r="B33">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="2"/>
+      <c r="C33">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="3"/>
+      <c r="D33">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E33" t="s">
         <v>13</v>
       </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="4"/>
+      <c r="F33">
+        <f t="shared" ca="1" si="9"/>
         <v>12.088000000000001</v>
       </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G33">
+        <f t="shared" ca="1" si="10"/>
         <v>12.25</v>
       </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H33">
+        <f t="shared" ca="1" si="6"/>
         <v>14.449999999999996</v>
       </c>
-      <c r="I14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I33">
+        <f t="shared" ca="1" si="6"/>
         <v>17.049999999999905</v>
       </c>
-      <c r="J14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="J33">
+        <f t="shared" ca="1" si="6"/>
         <v>15.950000000000003</v>
       </c>
-      <c r="K14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="K33">
+        <f t="shared" ca="1" si="6"/>
         <v>13</v>
       </c>
-      <c r="L14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L33">
+        <f t="shared" ca="1" si="6"/>
         <v>8.75</v>
       </c>
-      <c r="M14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="M33">
+        <f t="shared" ca="1" si="6"/>
         <v>9.5500000000000007</v>
       </c>
-      <c r="N14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="N33">
+        <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
-      <c r="O14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="O33">
+        <f t="shared" ca="1" si="6"/>
         <v>18.050000000000097</v>
       </c>
-      <c r="P14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="P33">
+        <f t="shared" ca="1" si="6"/>
         <v>15.049999999999997</v>
       </c>
-      <c r="Q14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Q33">
+        <f t="shared" ca="1" si="6"/>
         <v>7.9499999999999957</v>
       </c>
-      <c r="R14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="R33">
+        <f t="shared" ca="1" si="6"/>
         <v>11.699999999999996</v>
       </c>
-      <c r="S14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="S33">
+        <f t="shared" ca="1" si="6"/>
         <v>9.6000000000000014</v>
       </c>
-      <c r="T14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="T33">
+        <f t="shared" ca="1" si="6"/>
         <v>11.800000000000104</v>
       </c>
-      <c r="U14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="U33">
+        <f t="shared" ca="1" si="6"/>
         <v>12.249999999999908</v>
       </c>
-      <c r="V14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="V33">
+        <f t="shared" ca="1" si="6"/>
         <v>9.8500000000000973</v>
       </c>
-      <c r="W14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W33">
+        <f t="shared" ca="1" si="6"/>
         <v>13.050000000000097</v>
       </c>
-      <c r="X14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="X33">
+        <f t="shared" ca="1" si="6"/>
         <v>11.299999999999905</v>
       </c>
-      <c r="Y14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Y33">
+        <f t="shared" ca="1" si="6"/>
         <v>12.549999999999997</v>
       </c>
-      <c r="Z14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z33">
+        <f t="shared" ca="1" si="6"/>
         <v>11.600000000000001</v>
       </c>
-      <c r="AA14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AA33">
+        <f t="shared" ca="1" si="6"/>
         <v>12.949999999999996</v>
       </c>
-      <c r="AB14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AB33">
+        <f t="shared" ca="1" si="6"/>
         <v>15.050000000000004</v>
       </c>
-      <c r="AC14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AC33">
+        <f t="shared" ca="1" si="6"/>
         <v>9.3999999999999062</v>
       </c>
-      <c r="AD14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AD33">
+        <f t="shared" ca="1" si="6"/>
         <v>3.5500000000000007</v>
       </c>
-      <c r="AE14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AE33">
+        <f t="shared" ca="1" si="6"/>
         <v>13.5</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
-      <c r="B15">
-        <f t="shared" si="6"/>
+    <row r="34" spans="1:31">
+      <c r="B34">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="2"/>
+      <c r="C34">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="3"/>
+      <c r="D34">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E34" t="s">
         <v>41</v>
       </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="4"/>
+      <c r="F34">
+        <f t="shared" ca="1" si="9"/>
         <v>11.914000000000001</v>
       </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G34">
+        <f t="shared" ca="1" si="10"/>
         <v>12.25</v>
       </c>
-      <c r="H15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H34">
+        <f t="shared" ca="1" si="6"/>
         <v>14.449999999999996</v>
       </c>
-      <c r="I15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I34">
+        <f t="shared" ca="1" si="6"/>
         <v>17.049999999999905</v>
       </c>
-      <c r="J15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="J34">
+        <f t="shared" ca="1" si="6"/>
         <v>15.950000000000003</v>
       </c>
-      <c r="K15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="K34">
+        <f t="shared" ca="1" si="6"/>
         <v>11.649999999999999</v>
       </c>
-      <c r="L15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L34">
+        <f t="shared" ca="1" si="6"/>
         <v>8.75</v>
       </c>
-      <c r="M15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="M34">
+        <f t="shared" ca="1" si="6"/>
         <v>6.5499999999999048</v>
       </c>
-      <c r="N15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="N34">
+        <f t="shared" ca="1" si="6"/>
         <v>12.75</v>
       </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="O34">
+        <f t="shared" ca="1" si="6"/>
         <v>18.050000000000097</v>
       </c>
-      <c r="P15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="P34">
+        <f t="shared" ca="1" si="6"/>
         <v>15.049999999999997</v>
       </c>
-      <c r="Q15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Q34">
+        <f t="shared" ca="1" si="6"/>
         <v>7.9499999999999957</v>
       </c>
-      <c r="R15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="R34">
+        <f t="shared" ca="1" si="6"/>
         <v>11.699999999999996</v>
       </c>
-      <c r="S15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="S34">
+        <f t="shared" ca="1" si="6"/>
         <v>9.6000000000000014</v>
       </c>
-      <c r="T15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="T34">
+        <f t="shared" ca="1" si="6"/>
         <v>11.800000000000104</v>
       </c>
-      <c r="U15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="U34">
+        <f t="shared" ca="1" si="6"/>
         <v>12.249999999999908</v>
       </c>
-      <c r="V15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="V34">
+        <f t="shared" ca="1" si="6"/>
         <v>10</v>
       </c>
-      <c r="W15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W34">
+        <f t="shared" ca="1" si="6"/>
         <v>13.050000000000097</v>
       </c>
-      <c r="X15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="X34">
+        <f t="shared" ca="1" si="6"/>
         <v>11.299999999999905</v>
       </c>
-      <c r="Y15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Y34">
+        <f t="shared" ca="1" si="6"/>
         <v>12.549999999999997</v>
       </c>
-      <c r="Z15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z34">
+        <f t="shared" ca="1" si="6"/>
         <v>11.600000000000001</v>
       </c>
-      <c r="AA15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AA34">
+        <f t="shared" ca="1" si="6"/>
         <v>12.949999999999996</v>
       </c>
-      <c r="AB15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AB34">
+        <f t="shared" ca="1" si="6"/>
         <v>14.649999999999906</v>
       </c>
-      <c r="AC15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AC34">
+        <f t="shared" ca="1" si="6"/>
         <v>9.3999999999999062</v>
       </c>
-      <c r="AD15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AD34">
+        <f t="shared" ca="1" si="6"/>
         <v>2.3000000000000007</v>
       </c>
-      <c r="AE15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AE34">
+        <f t="shared" ca="1" si="6"/>
         <v>14.25</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
-      <c r="B16">
-        <f t="shared" si="6"/>
+    <row r="35" spans="1:31">
+      <c r="B35">
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="5"/>
-        <v>-4.8999999999999062</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.19999999999999574</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.9500000000000028</v>
-      </c>
-      <c r="J16">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.55000000000009663</v>
-      </c>
-      <c r="K16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5500000000000007</v>
-      </c>
-      <c r="L16">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="M16">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.25</v>
-      </c>
-      <c r="N16">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.3000000000000007</v>
-      </c>
-      <c r="O16">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.1500000000000981</v>
-      </c>
-      <c r="P16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.54999999999999716</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1499999999999986</v>
-      </c>
-      <c r="R16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000938</v>
-      </c>
-      <c r="S16">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.2000000000000988</v>
-      </c>
-      <c r="T16">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.44999999999999574</v>
-      </c>
-      <c r="U16">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3.0499999999999972</v>
-      </c>
-      <c r="V16">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.69999999999989981</v>
-      </c>
-      <c r="W16">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.84999999999990195</v>
-      </c>
-      <c r="X16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.4499999999998998</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.5</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.0000000000004263E-2</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.0000000000000995</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.4500000000000028</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5500000000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
-      <c r="B17">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.32600000000000051</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="5"/>
-        <v>-4.8999999999999062</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.19999999999999574</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.9500000000000028</v>
-      </c>
-      <c r="J17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.55000000000009663</v>
-      </c>
-      <c r="K17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="L17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="M17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.2500000000000959</v>
-      </c>
-      <c r="N17">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.0500000000000007</v>
-      </c>
-      <c r="O17">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.1500000000000981</v>
-      </c>
-      <c r="P17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.54999999999999716</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1499999999999986</v>
-      </c>
-      <c r="R17">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000938</v>
-      </c>
-      <c r="S17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.2000000000000988</v>
-      </c>
-      <c r="T17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.44999999999999574</v>
-      </c>
-      <c r="U17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3.0499999999999972</v>
-      </c>
-      <c r="V17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.54999999999999716</v>
-      </c>
-      <c r="W17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.84999999999990195</v>
-      </c>
-      <c r="X17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.4499999999998998</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.5</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.0000000000004263E-2</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.6000000000000014</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.4500000000000028</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.75</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.3000000000000007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31">
-      <c r="B18">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.17399999999999949</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.3500000000000014</v>
-      </c>
-      <c r="L18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3.0000000000000959</v>
-      </c>
-      <c r="N18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="O18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14999999999990266</v>
-      </c>
-      <c r="W18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.40000000000009805</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.25</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:31" ht="15.75" thickBot="1">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
-      <c r="E22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31">
-      <c r="D23">
-        <f>B9</f>
-        <v>1</v>
-      </c>
-      <c r="E23" t="str">
-        <f>E9</f>
-        <v>1,2</v>
-      </c>
-      <c r="F23">
-        <f ca="1">F9</f>
-        <v>-2.6780000000001039</v>
-      </c>
-      <c r="G23">
-        <f ca="1">STDEVA(G9:AE9)/SQRT(25)</f>
-        <v>0.39567537199072111</v>
-      </c>
-      <c r="H23">
-        <f ca="1">G23*$D$20</f>
-        <v>0.98523167625689567</v>
-      </c>
-      <c r="J23">
-        <f ca="1">F23-H23</f>
-        <v>-3.6632316762569994</v>
-      </c>
-      <c r="K23">
-        <f ca="1">F23+H23</f>
-        <v>-1.6927683237432083</v>
-      </c>
-      <c r="M23" t="str">
-        <f ca="1">IF(AND(J23&lt;0,K23&gt;0),"yes","no")</f>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31">
-      <c r="D24">
-        <f t="shared" ref="D24:D32" si="7">B10</f>
-        <v>2</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" ref="E24:F36" si="8">E10</f>
-        <v>1,3</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="8"/>
-        <v>8.9099999999998971</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ref="G24:G32" ca="1" si="9">STDEVA(G10:AE10)/SQRT(25)</f>
-        <v>0.97872365864935984</v>
-      </c>
-      <c r="H24">
-        <f t="shared" ref="H24:H32" ca="1" si="10">G24*$D$20</f>
-        <v>2.4370219100369064</v>
-      </c>
-      <c r="J24">
-        <f t="shared" ref="J24:J32" ca="1" si="11">F24-H24</f>
-        <v>6.4729780899629912</v>
-      </c>
-      <c r="K24">
-        <f t="shared" ref="K24:K32" ca="1" si="12">F24+H24</f>
-        <v>11.347021910036803</v>
-      </c>
-      <c r="M24" t="str">
-        <f t="shared" ref="M24:M32" ca="1" si="13">IF(AND(J24&lt;0,K24&gt;0),"yes","no")</f>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31">
-      <c r="D25">
+      <c r="C35">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="E25" t="str">
+      <c r="D35">
         <f t="shared" si="8"/>
-        <v>1,4</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ca="1" si="8"/>
-        <v>9.4099999999998971</v>
-      </c>
-      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35">
         <f t="shared" ca="1" si="9"/>
-        <v>0.80231955396005394</v>
-      </c>
-      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
         <f t="shared" ca="1" si="10"/>
-        <v>1.9977756893605345</v>
-      </c>
-      <c r="J25">
-        <f t="shared" ca="1" si="11"/>
-        <v>7.4122243106393624</v>
-      </c>
-      <c r="K25">
-        <f t="shared" ca="1" si="12"/>
-        <v>11.407775689360431</v>
-      </c>
-      <c r="M25" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31">
-      <c r="D26">
+        <v>-4.8999999999999062</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.19999999999999574</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.9500000000000028</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.55000000000009663</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.5500000000000007</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ca="1" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ca="1" si="6"/>
+        <v>-2.25</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.1500000000000981</v>
+      </c>
+      <c r="P35">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.54999999999999716</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.1499999999999986</v>
+      </c>
+      <c r="R35">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.1000000000000938</v>
+      </c>
+      <c r="S35">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.2000000000000988</v>
+      </c>
+      <c r="T35">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.44999999999999574</v>
+      </c>
+      <c r="U35">
+        <f t="shared" ca="1" si="6"/>
+        <v>-3.0499999999999972</v>
+      </c>
+      <c r="V35">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.69999999999989981</v>
+      </c>
+      <c r="W35">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.84999999999990195</v>
+      </c>
+      <c r="X35">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.4499999999998998</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" ca="1" si="6"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" ca="1" si="6"/>
+        <v>-5.0000000000004263E-2</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.0000000000000995</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.4500000000000028</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.5500000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="B36">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.32600000000000051</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="10"/>
+        <v>-4.8999999999999062</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.19999999999999574</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.9500000000000028</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.55000000000009663</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ca="1" si="6"/>
+        <v>-5.2500000000000959</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.0500000000000007</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.1500000000000981</v>
+      </c>
+      <c r="P36">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.54999999999999716</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.1499999999999986</v>
+      </c>
+      <c r="R36">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.1000000000000938</v>
+      </c>
+      <c r="S36">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.2000000000000988</v>
+      </c>
+      <c r="T36">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.44999999999999574</v>
+      </c>
+      <c r="U36">
+        <f t="shared" ca="1" si="6"/>
+        <v>-3.0499999999999972</v>
+      </c>
+      <c r="V36">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.54999999999999716</v>
+      </c>
+      <c r="W36">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.84999999999990195</v>
+      </c>
+      <c r="X36">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.4499999999998998</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" ca="1" si="6"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" ca="1" si="6"/>
+        <v>-5.0000000000004263E-2</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.4500000000000028</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.75</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.3000000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="B37">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="C37">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="E26" t="str">
+      <c r="D37">
         <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.17399999999999949</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.3500000000000014</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ca="1" si="6"/>
+        <v>-3.0000000000000959</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="O37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.14999999999990266</v>
+      </c>
+      <c r="W37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.40000000000009805</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.25</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="15.75" thickBot="1"/>
+    <row r="39" spans="1:31" ht="15.75" thickBot="1">
+      <c r="A39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="E41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="D42">
+        <f>B28</f>
+        <v>1</v>
+      </c>
+      <c r="E42" t="str">
+        <f>E28</f>
+        <v>1,2</v>
+      </c>
+      <c r="F42">
+        <f ca="1">F28</f>
+        <v>-2.6780000000001039</v>
+      </c>
+      <c r="G42">
+        <f ca="1">STDEVA(G28:AE28)/SQRT($C$25)</f>
+        <v>0.39567537199072111</v>
+      </c>
+      <c r="H42">
+        <f ca="1">G42*$D$39</f>
+        <v>0.98523167625689567</v>
+      </c>
+      <c r="J42">
+        <f ca="1">F42-H42</f>
+        <v>-3.6632316762569994</v>
+      </c>
+      <c r="K42">
+        <f ca="1">F42+H42</f>
+        <v>-1.6927683237432083</v>
+      </c>
+      <c r="M42" t="str">
+        <f ca="1">IF(AND(J42&lt;0,K42&gt;0),"yes","no")</f>
+        <v>no</v>
+      </c>
+      <c r="O42" t="str">
+        <f ca="1">TEXT(F42,"##.##")&amp;" +/-" &amp; TEXT(H42,"##.##")</f>
+        <v>-2.68 +/-.99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="D43">
+        <f t="shared" ref="D43:D51" si="12">B29</f>
+        <v>2</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" ref="E43:F55" si="13">E29</f>
+        <v>1,3</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="13"/>
+        <v>8.9099999999998971</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ref="G43:G51" ca="1" si="14">STDEVA(G29:AE29)/SQRT($C$25)</f>
+        <v>0.97872365864935984</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ref="H43:H51" ca="1" si="15">G43*$D$39</f>
+        <v>2.4370219100369064</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ref="J43:J51" ca="1" si="16">F43-H43</f>
+        <v>6.4729780899629912</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ref="K43:K51" ca="1" si="17">F43+H43</f>
+        <v>11.347021910036803</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" ref="M43:M51" ca="1" si="18">IF(AND(J43&lt;0,K43&gt;0),"yes","no")</f>
+        <v>no</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" ref="O43:O51" ca="1" si="19">TEXT(F43,"##.##")&amp;" +/-" &amp; TEXT(H43,"##.##")</f>
+        <v>8.91 +/-2.44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="D44">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="13"/>
+        <v>1,4</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="13"/>
+        <v>9.4099999999998971</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.80231955396005394</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.9977756893605345</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ca="1" si="16"/>
+        <v>7.4122243106393624</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="17"/>
+        <v>11.407775689360431</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>no</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>9.41 +/-2.</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="D45">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="13"/>
         <v>1,5</v>
       </c>
-      <c r="F26">
-        <f t="shared" ca="1" si="8"/>
+      <c r="F45">
+        <f t="shared" ca="1" si="13"/>
         <v>9.2359999999998976</v>
       </c>
-      <c r="G26">
-        <f t="shared" ca="1" si="9"/>
+      <c r="G45">
+        <f t="shared" ca="1" si="14"/>
         <v>0.84780363292450678</v>
       </c>
-      <c r="H26">
-        <f t="shared" ca="1" si="10"/>
+      <c r="H45">
+        <f t="shared" ca="1" si="15"/>
         <v>2.1110310459820218</v>
       </c>
-      <c r="J26">
-        <f t="shared" ca="1" si="11"/>
+      <c r="J45">
+        <f t="shared" ca="1" si="16"/>
         <v>7.1249689540178753</v>
       </c>
-      <c r="K26">
-        <f t="shared" ca="1" si="12"/>
+      <c r="K45">
+        <f t="shared" ca="1" si="17"/>
         <v>11.34703104598192</v>
       </c>
-      <c r="M26" t="str">
+      <c r="M45" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>no</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>9.24 +/-2.11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="D46">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="13"/>
+        <v>2,3</v>
+      </c>
+      <c r="F46">
         <f t="shared" ca="1" si="13"/>
+        <v>11.588000000000001</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.86462072609902163</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="15"/>
+        <v>2.1529056079865638</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ca="1" si="16"/>
+        <v>9.4350943920134362</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="17"/>
+        <v>13.740905607986566</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" ca="1" si="18"/>
         <v>no</v>
       </c>
-    </row>
-    <row r="27" spans="1:31">
-      <c r="D27">
-        <f t="shared" si="7"/>
+      <c r="O46" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>11.59 +/-2.15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="D47">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="13"/>
+        <v>2,4</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="13"/>
+        <v>12.088000000000001</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.61926892381258658</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.5419796202933407</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ca="1" si="16"/>
+        <v>10.546020379706661</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="17"/>
+        <v>13.629979620293341</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>no</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>12.09 +/-1.54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
+      <c r="D48">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="13"/>
+        <v>2,5</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="13"/>
+        <v>11.914000000000001</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.67834062240146131</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.6890681497796387</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="16"/>
+        <v>10.224931850220363</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="17"/>
+        <v>13.60306814977964</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>no</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>11.91 +/-1.69</v>
+      </c>
+    </row>
+    <row r="49" spans="4:20">
+      <c r="D49">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="13"/>
+        <v>3,4</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.58642277127228337</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.4601927004679858</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ca="1" si="16"/>
+        <v>-0.96019270046798577</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ca="1" si="17"/>
+        <v>1.9601927004679858</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>yes</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>.5 +/-1.46</v>
+      </c>
+    </row>
+    <row r="50" spans="4:20">
+      <c r="D50">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="13"/>
+        <v>3,5</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.32600000000000051</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.60676821494427868</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.5108528552112541</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ca="1" si="16"/>
+        <v>-1.1848528552112536</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ca="1" si="17"/>
+        <v>1.8368528552112546</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>yes</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>.33 +/-1.51</v>
+      </c>
+    </row>
+    <row r="51" spans="4:20">
+      <c r="D51">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="13"/>
+        <v>4,5</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.17399999999999949</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.14683096857725284</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.36560911175735961</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ca="1" si="16"/>
+        <v>-0.53960911175735915</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.19160911175736012</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>yes</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>-.17 +/-.37</v>
+      </c>
+    </row>
+    <row r="54" spans="4:20">
+      <c r="D54" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="4:20">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="M55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="4:20">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
         <v>5</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="8"/>
-        <v>2,3</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ca="1" si="8"/>
-        <v>11.588000000000001</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.86462072609902163</v>
-      </c>
-      <c r="H27">
-        <f t="shared" ca="1" si="10"/>
-        <v>2.1529056079865638</v>
-      </c>
-      <c r="J27">
-        <f t="shared" ca="1" si="11"/>
-        <v>9.4350943920134362</v>
-      </c>
-      <c r="K27">
-        <f t="shared" ca="1" si="12"/>
-        <v>13.740905607986566</v>
-      </c>
-      <c r="M27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31">
-      <c r="D28">
-        <f t="shared" si="7"/>
+    </row>
+    <row r="57" spans="4:20">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
         <v>6</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="8"/>
-        <v>2,4</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ca="1" si="8"/>
-        <v>12.088000000000001</v>
-      </c>
-      <c r="G28">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.61926892381258658</v>
-      </c>
-      <c r="H28">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.5419796202933407</v>
-      </c>
-      <c r="J28">
-        <f t="shared" ca="1" si="11"/>
-        <v>10.546020379706661</v>
-      </c>
-      <c r="K28">
-        <f t="shared" ca="1" si="12"/>
-        <v>13.629979620293341</v>
-      </c>
-      <c r="M28" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31">
-      <c r="D29">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="8"/>
-        <v>2,5</v>
-      </c>
-      <c r="F29">
-        <f t="shared" ca="1" si="8"/>
-        <v>11.914000000000001</v>
-      </c>
-      <c r="G29">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.67834062240146131</v>
-      </c>
-      <c r="H29">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.6890681497796387</v>
-      </c>
-      <c r="J29">
-        <f t="shared" ca="1" si="11"/>
-        <v>10.224931850220363</v>
-      </c>
-      <c r="K29">
-        <f t="shared" ca="1" si="12"/>
-        <v>13.60306814977964</v>
-      </c>
-      <c r="M29" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31">
-      <c r="D30">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="8"/>
-        <v>3,4</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="G30">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.58642277127228337</v>
-      </c>
-      <c r="H30">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.4601927004679858</v>
-      </c>
-      <c r="J30">
-        <f t="shared" ca="1" si="11"/>
-        <v>-0.96019270046798577</v>
-      </c>
-      <c r="K30">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.9601927004679858</v>
-      </c>
-      <c r="M30" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>yes</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31">
-      <c r="D31">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="8"/>
-        <v>3,5</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.32600000000000051</v>
-      </c>
-      <c r="G31">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.60676821494427868</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.5108528552112541</v>
-      </c>
-      <c r="J31">
-        <f t="shared" ca="1" si="11"/>
-        <v>-1.1848528552112536</v>
-      </c>
-      <c r="K31">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.8368528552112546</v>
-      </c>
-      <c r="M31" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>yes</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31">
-      <c r="D32">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="8"/>
-        <v>4,5</v>
-      </c>
-      <c r="F32">
-        <f t="shared" ca="1" si="8"/>
-        <v>-0.17399999999999949</v>
-      </c>
-      <c r="G32">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.14683096857725284</v>
-      </c>
-      <c r="H32">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.36560911175735961</v>
-      </c>
-      <c r="J32">
-        <f t="shared" ca="1" si="11"/>
-        <v>-0.53960911175735915</v>
-      </c>
-      <c r="K32">
-        <f t="shared" ca="1" si="12"/>
-        <v>0.19160911175736012</v>
-      </c>
-      <c r="M32" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>yes</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5">
-      <c r="D35" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5">
-      <c r="D36">
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+    </row>
+    <row r="58" spans="4:20">
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>48</v>
+      </c>
+      <c r="N58" s="14"/>
+      <c r="O58" s="23">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
+      <c r="P58" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q58" s="23">
+        <v>3</v>
+      </c>
+      <c r="R58" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="4:5">
-      <c r="D37">
+      <c r="S58" s="23">
+        <v>5</v>
+      </c>
+      <c r="T58" s="14"/>
+    </row>
+    <row r="59" spans="4:20" ht="36" customHeight="1">
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>32</v>
+      </c>
+      <c r="N59" s="24">
         <v>1</v>
       </c>
-      <c r="E37" t="s">
+      <c r="O59" s="15"/>
+      <c r="P59" s="25" t="str">
+        <f ca="1">INDEX($O$42:$O$51,MATCH($N59&amp;","&amp;P$58,$E$42:$E$51,0),0)</f>
+        <v>-2.68 +/-.99</v>
+      </c>
+      <c r="Q59" s="25" t="str">
+        <f ca="1">INDEX($O$42:$O$51,MATCH($N59&amp;","&amp;Q$58,$E$42:$E$51,0),0)</f>
+        <v>8.91 +/-2.44</v>
+      </c>
+      <c r="R59" s="25" t="str">
+        <f ca="1">INDEX($O$42:$O$51,MATCH($N59&amp;","&amp;R$58,$E$42:$E$51,0),0)</f>
+        <v>9.41 +/-2.</v>
+      </c>
+      <c r="S59" s="26" t="str">
+        <f ca="1">INDEX($O$42:$O$51,MATCH($N59&amp;","&amp;S$58,$E$42:$E$51,0),0)</f>
+        <v>9.24 +/-2.11</v>
+      </c>
+      <c r="T59" s="14"/>
+    </row>
+    <row r="60" spans="4:20" ht="36" customHeight="1">
+      <c r="N60" s="24">
+        <v>2</v>
+      </c>
+      <c r="O60" s="16"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="27" t="str">
+        <f ca="1">INDEX($O$42:$O$51,MATCH($N60&amp;","&amp;Q$58,$E$42:$E$51,0),0)</f>
+        <v>11.59 +/-2.15</v>
+      </c>
+      <c r="R60" s="27" t="str">
+        <f t="shared" ref="R60:S62" ca="1" si="20">INDEX($O$42:$O$51,MATCH($N60&amp;","&amp;R$58,$E$42:$E$51,0),0)</f>
+        <v>12.09 +/-1.54</v>
+      </c>
+      <c r="S60" s="28" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>11.91 +/-1.69</v>
+      </c>
+      <c r="T60" s="14"/>
+    </row>
+    <row r="61" spans="4:20" ht="36" customHeight="1">
+      <c r="E61">
+        <f ca="1">STDEVA(F42:F51)</f>
+        <v>5.8649389122517235</v>
+      </c>
+      <c r="N61" s="24">
+        <v>3</v>
+      </c>
+      <c r="O61" s="16"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="29" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>.5 +/-1.46</v>
+      </c>
+      <c r="S61" s="30" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>.33 +/-1.51</v>
+      </c>
+      <c r="T61" s="14"/>
+    </row>
+    <row r="62" spans="4:20" ht="36" customHeight="1">
+      <c r="N62" s="24">
+        <v>4</v>
+      </c>
+      <c r="O62" s="16"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="30" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>-.17 +/-.37</v>
+      </c>
+      <c r="T62" s="14"/>
+    </row>
+    <row r="63" spans="4:20" ht="36" customHeight="1">
+      <c r="N63" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="4:5">
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5">
-      <c r="D39">
+      <c r="O63" s="18"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="14"/>
+    </row>
+    <row r="64" spans="4:20" ht="36" customHeight="1">
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+    </row>
+    <row r="68" spans="10:24">
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="14"/>
+      <c r="W68" s="14"/>
+      <c r="X68" s="14"/>
+    </row>
+    <row r="69" spans="10:24">
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="N69" s="23"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="14"/>
+      <c r="W69" s="14"/>
+      <c r="X69" s="14"/>
+    </row>
+    <row r="70" spans="10:24">
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="14"/>
+      <c r="X70" s="14"/>
+    </row>
+    <row r="71" spans="10:24">
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="N71" s="38">
+        <v>3</v>
+      </c>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q71" s="39">
+        <v>3</v>
+      </c>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="14"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="14"/>
+      <c r="X71" s="14"/>
+    </row>
+    <row r="72" spans="10:24">
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="N72" s="41">
+        <v>1.6970000000000001</v>
+      </c>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q72" s="24">
+        <f>R74</f>
+        <v>2.3420000000000001</v>
+      </c>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="14"/>
+      <c r="W72" s="14"/>
+      <c r="X72" s="14"/>
+    </row>
+    <row r="73" spans="10:24">
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="N73" s="23">
+        <f>C25</f>
+        <v>25</v>
+      </c>
+      <c r="O73" s="23"/>
+      <c r="P73" s="23"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="14"/>
+      <c r="T73" s="14"/>
+      <c r="U73" s="14"/>
+      <c r="V73" s="14"/>
+      <c r="W73" s="14"/>
+      <c r="X73" s="14"/>
+    </row>
+    <row r="74" spans="10:24" hidden="1">
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q74" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="R74" s="14">
+        <v>2.3420000000000001</v>
+      </c>
+      <c r="S74" s="14"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="14"/>
+      <c r="V74" s="14"/>
+      <c r="W74" s="14"/>
+      <c r="X74" s="14"/>
+    </row>
+    <row r="75" spans="10:24">
+      <c r="J75" s="14"/>
+      <c r="K75" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="L75" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="M75" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="N75" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="O75" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="P75" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q75" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="R75" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="S75" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="T75" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="U75" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="V75" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="W75" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="X75" s="14"/>
+    </row>
+    <row r="76" spans="10:24">
+      <c r="J76" s="14"/>
+      <c r="K76" s="35">
+        <f>LEFT(M76,1)-0</f>
+        <v>3</v>
+      </c>
+      <c r="L76" s="35">
+        <f>RIGHT(M76,1)-0</f>
         <v>4</v>
       </c>
-      <c r="E39" t="s">
+      <c r="M76" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N76" s="35">
+        <f ca="1">((OFFSET($C$13,K76,0)/$N$73+OFFSET($C$13,L76,0)/$N$73)^0.5)*$N$72</f>
+        <v>5.4977146534451249</v>
+      </c>
+      <c r="O76" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="P76" s="14">
+        <f>B16</f>
+        <v>39.052</v>
+      </c>
+      <c r="Q76" s="14">
+        <f>C16</f>
+        <v>119.02030833333295</v>
+      </c>
+      <c r="R76" s="14">
+        <f>ROUND(MAX($N$73+1,$R$74^2*Q76/$Q$71^2),0)</f>
+        <v>73</v>
+      </c>
+      <c r="S76" s="14">
+        <f>R76-$N$73</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="40" spans="4:5">
-      <c r="D40">
+      <c r="T76" s="14">
+        <f>($N$73/R76)*(1+ABS((1-R76/$N$73*(1-(R76-$N$73)*($Q$71^2)/($Q$72^2*Q76))))^0.5)</f>
+        <v>0.38042774778894201</v>
+      </c>
+      <c r="U76" s="14">
+        <f>1-T76</f>
+        <v>0.61957225221105805</v>
+      </c>
+      <c r="V76" s="14">
+        <f>B19</f>
+        <v>35.185416666666598</v>
+      </c>
+      <c r="W76" s="14">
+        <f>T76*P76+U76*V76</f>
+        <v>36.656372255804882</v>
+      </c>
+      <c r="X76" s="14"/>
+    </row>
+    <row r="77" spans="10:24">
+      <c r="J77" s="14"/>
+      <c r="K77" s="35">
+        <f t="shared" ref="K77:K78" si="21">LEFT(M77,1)-0</f>
+        <v>3</v>
+      </c>
+      <c r="L77" s="35">
+        <f t="shared" ref="L77:L78" si="22">RIGHT(M77,1)-0</f>
         <v>5</v>
       </c>
-      <c r="E40" t="s">
-        <v>32</v>
-      </c>
+      <c r="M77" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="N77" s="35">
+        <f ca="1">((OFFSET($C$13,K77,0)/$N$73+OFFSET($C$13,L77,0)/$N$73)^0.5)*$N$72</f>
+        <v>5.4648529407282957</v>
+      </c>
+      <c r="O77" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="P77" s="14">
+        <f t="shared" ref="P77:Q78" si="23">B17</f>
+        <v>38.552</v>
+      </c>
+      <c r="Q77" s="14">
+        <f t="shared" si="23"/>
+        <v>143.36572499999966</v>
+      </c>
+      <c r="R77" s="14">
+        <f t="shared" ref="R77:R78" si="24">ROUND(MAX($N$73+1,$R$74^2*Q77/$Q$71^2),0)</f>
+        <v>87</v>
+      </c>
+      <c r="S77" s="14">
+        <f t="shared" ref="S77:S78" si="25">R77-$N$73</f>
+        <v>62</v>
+      </c>
+      <c r="T77" s="14">
+        <f t="shared" ref="T77:T78" si="26">($N$73/R77)*(1+ABS((1-R77/$N$73*(1-(R77-$N$73)*($Q$71^2)/($Q$72^2*Q77))))^0.5)</f>
+        <v>0.3169185858316918</v>
+      </c>
+      <c r="U77" s="14">
+        <f t="shared" ref="U77:U78" si="27">1-T77</f>
+        <v>0.68308141416830814</v>
+      </c>
+      <c r="V77" s="14">
+        <f t="shared" ref="V77:V78" si="28">B20</f>
+        <v>30.3298387096774</v>
+      </c>
+      <c r="W77" s="14">
+        <f t="shared" ref="W77:W78" si="29">T77*P77+U77*V77</f>
+        <v>32.935594438286515</v>
+      </c>
+      <c r="X77" s="14"/>
+    </row>
+    <row r="78" spans="10:24">
+      <c r="J78" s="14"/>
+      <c r="K78" s="35">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="L78" s="35">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M78" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="N78" s="35">
+        <f ca="1">((OFFSET($C$13,K78,0)/$N$73+OFFSET($C$13,L78,0)/$N$73)^0.5)*$N$72</f>
+        <v>5.7156822571591022</v>
+      </c>
+      <c r="O78" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="P78" s="14">
+        <f t="shared" si="23"/>
+        <v>38.725999999999999</v>
+      </c>
+      <c r="Q78" s="14">
+        <f t="shared" si="23"/>
+        <v>140.23835833333396</v>
+      </c>
+      <c r="R78" s="14">
+        <f t="shared" si="24"/>
+        <v>85</v>
+      </c>
+      <c r="S78" s="14">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="T78" s="14">
+        <f t="shared" si="26"/>
+        <v>0.32779611697960254</v>
+      </c>
+      <c r="U78" s="14">
+        <f t="shared" si="27"/>
+        <v>0.67220388302039746</v>
+      </c>
+      <c r="V78" s="14">
+        <f t="shared" si="28"/>
+        <v>27.6533333333333</v>
+      </c>
+      <c r="W78" s="14">
+        <f t="shared" si="29"/>
+        <v>31.282910471276121</v>
+      </c>
+      <c r="X78" s="14"/>
+    </row>
+    <row r="79" spans="10:24">
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="14"/>
+      <c r="T79" s="14"/>
+      <c r="U79" s="14"/>
+      <c r="V79" s="14"/>
+      <c r="W79" s="14"/>
+      <c r="X79" s="14"/>
+    </row>
+    <row r="80" spans="10:24">
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="U80" s="31"/>
+      <c r="V80" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="W80" s="31">
+        <f>MIN(W76:W78)</f>
+        <v>31.282910471276121</v>
+      </c>
+      <c r="X80" s="14"/>
+    </row>
+    <row r="81" spans="10:24">
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
+      <c r="R81" s="14"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="14"/>
+      <c r="U81" s="14"/>
+      <c r="V81" s="14"/>
+      <c r="W81" s="14"/>
+      <c r="X81" s="14"/>
+    </row>
+    <row r="82" spans="10:24">
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="14"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="14"/>
+      <c r="W82" s="14"/>
+      <c r="X82" s="14"/>
+    </row>
+    <row r="83" spans="10:24">
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="14"/>
+      <c r="U83" s="14"/>
+      <c r="V83" s="14"/>
+      <c r="W83" s="14"/>
+      <c r="X83" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>